--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141C68D5-A6A7-4A27-8343-35686F3AE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D739E29-741A-9942-A233-70F958CA1D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="10780" yWindow="760" windowWidth="26660" windowHeight="15780" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>R1</t>
   </si>
@@ -251,9 +251,6 @@
     <t>K2SiO3</t>
   </si>
   <si>
-    <t>K2SiO5</t>
-  </si>
-  <si>
     <t>KAlSiO4</t>
   </si>
   <si>
@@ -263,175 +260,187 @@
     <t>KAlO2</t>
   </si>
   <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>MgO</t>
+  </si>
+  <si>
+    <t>FeO</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>Na2O</t>
+  </si>
+  <si>
+    <t>K2O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>SiO</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>AlO</t>
+  </si>
+  <si>
+    <t>AlO2</t>
+  </si>
+  <si>
+    <t>Al2O</t>
+  </si>
+  <si>
+    <t>Al2O2</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>TiO</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>NaO</t>
+  </si>
+  <si>
+    <t>Na2</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>ThO</t>
+  </si>
+  <si>
+    <t>ThO2</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>UO3</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>PuO</t>
+  </si>
+  <si>
+    <t>PuO2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>O2_g</t>
+  </si>
+  <si>
+    <t>Mg_g</t>
+  </si>
+  <si>
+    <t>Fe_liq</t>
+  </si>
+  <si>
+    <t>Ca_g</t>
+  </si>
+  <si>
+    <t>Al_liq</t>
+  </si>
+  <si>
+    <t>Ti_liq</t>
+  </si>
+  <si>
+    <t>Na_g</t>
+  </si>
+  <si>
+    <t>K_g</t>
+  </si>
+  <si>
+    <t>Th_liq</t>
+  </si>
+  <si>
+    <t>U_liq</t>
+  </si>
+  <si>
+    <t>Pu_liq</t>
+  </si>
+  <si>
+    <t>Si_liq</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>Stoich Product 1</t>
+  </si>
+  <si>
+    <t>Stoich Product 2</t>
+  </si>
+  <si>
+    <t>Reactant</t>
+  </si>
+  <si>
+    <t>K2Si2O5</t>
+  </si>
+  <si>
     <t>KAlSi2O6</t>
   </si>
   <si>
-    <t>SiO2</t>
-  </si>
-  <si>
-    <t>MgO</t>
-  </si>
-  <si>
-    <t>FeO</t>
-  </si>
-  <si>
-    <t>CaO</t>
-  </si>
-  <si>
-    <t>Al2O3</t>
-  </si>
-  <si>
-    <t>TiO2</t>
-  </si>
-  <si>
-    <t>Na2O</t>
-  </si>
-  <si>
-    <t>K2O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>SiO</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>AlO</t>
-  </si>
-  <si>
-    <t>AlO2</t>
-  </si>
-  <si>
-    <t>Al2O</t>
-  </si>
-  <si>
-    <t>Al2O2</t>
-  </si>
-  <si>
-    <t>Ti</t>
-  </si>
-  <si>
-    <t>TiO</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>NaO</t>
-  </si>
-  <si>
-    <t>Na2</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>Th</t>
-  </si>
-  <si>
-    <t>ThO</t>
-  </si>
-  <si>
-    <t>ThO2</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>UO2</t>
-  </si>
-  <si>
-    <t>UO3</t>
-  </si>
-  <si>
-    <t>Pu</t>
-  </si>
-  <si>
-    <t>PuO</t>
-  </si>
-  <si>
-    <t>PuO2</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>O2_g</t>
-  </si>
-  <si>
-    <t>Mg_g</t>
-  </si>
-  <si>
-    <t>Fe_liq</t>
-  </si>
-  <si>
-    <t>Ca_g</t>
-  </si>
-  <si>
-    <t>Al_liq</t>
-  </si>
-  <si>
-    <t>Ti_liq</t>
-  </si>
-  <si>
-    <t>Na_g</t>
-  </si>
-  <si>
-    <t>K_g</t>
-  </si>
-  <si>
-    <t>Th_liq</t>
-  </si>
-  <si>
-    <t>U_liq</t>
-  </si>
-  <si>
-    <t>Pu_liq</t>
-  </si>
-  <si>
-    <t>Si_liq</t>
-  </si>
-  <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Stoich Product 1</t>
-  </si>
-  <si>
-    <t>Stoich Product 2</t>
-  </si>
-  <si>
-    <t>Reactant</t>
+    <t>KCaAlSi2O7</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>K2Si4O9</t>
   </si>
 </sst>
 </file>
@@ -795,26 +804,26 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -823,15 +832,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>22.13</v>
@@ -849,15 +858,15 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -866,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>12.56</v>
@@ -875,15 +884,15 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -892,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>12.06</v>
@@ -901,15 +910,15 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -918,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>11.88</v>
@@ -927,15 +936,15 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -944,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>35.83</v>
@@ -953,15 +962,15 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -970,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>21.07</v>
@@ -979,15 +988,15 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -996,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>15.56</v>
@@ -1005,15 +1014,15 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1022,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>15.33</v>
@@ -1031,24 +1040,24 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
       </c>
       <c r="G10">
         <v>20.43</v>
@@ -1057,24 +1066,24 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
       </c>
       <c r="G11">
         <v>19.18</v>
@@ -1083,24 +1092,24 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>112</v>
       </c>
       <c r="G12">
         <v>18.670000000000002</v>
@@ -1124,9 +1133,9 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1140,48 +1149,48 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>122</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>123</v>
       </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>3.47</v>
@@ -1193,12 +1202,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1210,12 +1219,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2.5099999999999998</v>
@@ -1230,12 +1239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>-1.44</v>
@@ -1250,12 +1259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1267,12 +1276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>-1.19</v>
@@ -1287,12 +1296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>6.35</v>
@@ -1304,12 +1313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>3.39</v>
@@ -1324,12 +1333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1341,12 +1350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>-1.61</v>
@@ -1361,12 +1370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>5.7</v>
@@ -1378,12 +1387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>3.04</v>
@@ -1398,12 +1407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>-0.09</v>
@@ -1418,12 +1427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>2.04</v>
@@ -1438,12 +1447,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>-1.53</v>
@@ -1458,12 +1467,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>6.46</v>
@@ -1475,12 +1484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>4.3099999999999996</v>
@@ -1495,12 +1504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>-0.41</v>
@@ -1515,12 +1524,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1532,12 +1541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>-1.43</v>
@@ -1552,12 +1561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>-4.3099999999999996</v>
@@ -1569,12 +1578,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>-7</v>
@@ -1589,12 +1598,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1606,12 +1615,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>-1.28</v>
@@ -1626,12 +1635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>-3.94</v>
@@ -1643,12 +1652,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>-7.29</v>
@@ -1663,12 +1672,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>5.96</v>
@@ -1680,12 +1689,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29">
         <v>2.75</v>
@@ -1700,12 +1709,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30">
         <v>-1.58</v>
@@ -1720,12 +1729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31">
         <v>5.75</v>
@@ -1737,12 +1746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32">
         <v>3.02</v>
@@ -1757,12 +1766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33">
         <v>-1.19</v>
@@ -1777,12 +1786,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34">
         <v>-4.24</v>
@@ -1797,12 +1806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>4.79</v>
@@ -1814,12 +1823,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>2.4</v>
@@ -1834,12 +1843,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37">
         <v>-1.76</v>
@@ -1854,12 +1863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1879,16 +1888,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1902,31 +1911,31 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2573,12 +2582,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>-0.73</v>
@@ -2593,12 +2602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.97</v>
@@ -2616,12 +2625,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>1.1100000000000001</v>
@@ -2639,12 +2648,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.72</v>
@@ -2659,12 +2668,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>1.53</v>
@@ -2680,6 +2689,52 @@
       </c>
       <c r="L37">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>4.2983000000000002</v>
+      </c>
+      <c r="D38">
+        <v>17037</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39">
+        <v>-0.96479999999999999</v>
+      </c>
+      <c r="D39">
+        <v>17572</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D739E29-741A-9942-A233-70F958CA1D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51F153E-397D-5948-A8A9-4004D6863761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="760" windowWidth="26660" windowHeight="15780" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="7900" yWindow="760" windowWidth="26660" windowHeight="15780" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
   <si>
     <t>R1</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>K2Si4O9</t>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+  </si>
+  <si>
+    <t>K39</t>
   </si>
 </sst>
 </file>
@@ -1888,11 +1894,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2737,6 +2743,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51F153E-397D-5948-A8A9-4004D6863761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F6003AE-2895-A44D-AF1A-64ACAFBB6D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="760" windowWidth="26660" windowHeight="15780" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="7520" yWindow="680" windowWidth="26660" windowHeight="15780" activeTab="1" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
   <si>
     <t>R1</t>
   </si>
@@ -1132,11 +1132,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB38BCC-BF73-D341-9EF2-69884C8E8DA9}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,19 +1324,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C9">
-        <v>3.39</v>
+        <v>-2.26722053113</v>
       </c>
       <c r="D9">
-        <v>-9951</v>
+        <f>7.56430936141329*10^4</f>
+        <v>75643.0936141329</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1344,15 +1345,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+        <v>-9951</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
@@ -1361,16 +1365,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>6128</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1381,15 +1382,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>5.7</v>
+        <v>-1.61</v>
       </c>
       <c r="D12">
-        <v>-15862</v>
-      </c>
-      <c r="J12">
+        <v>6128</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
@@ -1398,16 +1402,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>3.04</v>
+        <v>5.7</v>
       </c>
       <c r="D13">
-        <v>-2143</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
+        <v>-15862</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1418,16 +1419,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
-        <v>-0.09</v>
+        <v>3.04</v>
       </c>
       <c r="D14">
-        <v>5523</v>
+        <v>-2143</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1438,19 +1439,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>2.04</v>
+        <v>-0.09</v>
       </c>
       <c r="D15">
-        <v>10232</v>
+        <v>5523</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1458,16 +1459,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
-        <v>-1.53</v>
+        <v>2.04</v>
       </c>
       <c r="D16">
-        <v>23021</v>
+        <v>10232</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1478,16 +1479,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
-        <v>6.46</v>
+        <v>-1.53</v>
       </c>
       <c r="D17">
-        <v>-23025</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
+        <v>23021</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1495,16 +1499,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
-        <v>4.3099999999999996</v>
+        <v>6.46</v>
       </c>
       <c r="D18">
-        <v>-2101</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
+        <v>-23025</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1515,16 +1516,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C19">
-        <v>-0.41</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D19">
-        <v>17926</v>
+        <v>-2101</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1535,15 +1536,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.41</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+        <v>17926</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -1552,16 +1556,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
-        <v>-1.43</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1287</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1572,16 +1573,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
-        <v>-4.3099999999999996</v>
+        <v>-1.43</v>
       </c>
       <c r="D22">
-        <v>4281</v>
+        <v>1287</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1589,16 +1593,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C23">
-        <v>-7</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="D23">
-        <v>11898</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
+        <v>4281</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1609,16 +1610,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+        <v>11898</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1626,16 +1630,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>959</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1646,16 +1647,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26">
-        <v>-3.94</v>
+        <v>-1.28</v>
       </c>
       <c r="D26">
-        <v>2852</v>
+        <v>959</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1663,16 +1667,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>-7.29</v>
+        <v>-3.94</v>
       </c>
       <c r="D27">
-        <v>13340</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
+        <v>2852</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -1683,16 +1684,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>5.96</v>
+        <v>-7.29</v>
       </c>
       <c r="D28">
-        <v>-29600</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
+        <v>13340</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1700,16 +1704,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29">
-        <v>2.75</v>
+        <v>5.96</v>
       </c>
       <c r="D29">
-        <v>3497</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
+        <v>-29600</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1720,16 +1721,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30">
-        <v>-1.58</v>
+        <v>2.75</v>
       </c>
       <c r="D30">
-        <v>28875</v>
+        <v>3497</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1740,15 +1741,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31">
-        <v>5.75</v>
+        <v>-1.58</v>
       </c>
       <c r="D31">
-        <v>-25470</v>
-      </c>
-      <c r="O31">
+        <v>28875</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>1</v>
       </c>
     </row>
@@ -1757,16 +1761,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32">
-        <v>3.02</v>
+        <v>5.75</v>
       </c>
       <c r="D32">
-        <v>1705</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
+        <v>-25470</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -1777,16 +1778,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33">
-        <v>-1.19</v>
+        <v>3.02</v>
       </c>
       <c r="D33">
-        <v>26554</v>
+        <v>1705</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -1797,16 +1798,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34">
-        <v>-4.24</v>
+        <v>-1.19</v>
       </c>
       <c r="D34">
-        <v>43710</v>
+        <v>26554</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -1817,16 +1818,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35">
-        <v>4.79</v>
+        <v>-4.24</v>
       </c>
       <c r="D35">
-        <v>-17316</v>
+        <v>43710</v>
       </c>
       <c r="E35">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -1834,19 +1838,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36">
-        <v>2.4</v>
+        <v>4.79</v>
       </c>
       <c r="D36">
-        <v>6875</v>
+        <v>-17316</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -1854,13 +1855,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37">
-        <v>-1.76</v>
+        <v>2.4</v>
       </c>
       <c r="D37">
-        <v>25984</v>
+        <v>6875</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1874,15 +1875,35 @@
         <v>112</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38">
+        <v>-1.76</v>
+      </c>
+      <c r="D38">
+        <v>25984</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
@@ -1896,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F6003AE-2895-A44D-AF1A-64ACAFBB6D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C37F72B-F713-4630-8B3C-5003912F845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="680" windowWidth="26660" windowHeight="15780" activeTab="1" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -810,9 +810,9 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -838,7 +838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +890,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -916,7 +916,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -942,7 +942,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -994,7 +994,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1134,14 +1134,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB38BCC-BF73-D341-9EF2-69884C8E8DA9}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1917,14 +1917,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2597,10 +2597,10 @@
         <v>70</v>
       </c>
       <c r="C32">
-        <v>0.15</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="D32">
-        <v>14600</v>
+        <v>12735</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2617,10 +2617,10 @@
         <v>130</v>
       </c>
       <c r="C33">
-        <v>-0.73</v>
+        <v>0.34620000000000001</v>
       </c>
       <c r="D33">
-        <v>18466</v>
+        <v>14685</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C37F72B-F713-4630-8B3C-5003912F845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753D0B6-798B-A442-8795-005E8690C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="7740" yWindow="500" windowWidth="21060" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3" sheetId="1" r:id="rId3"/>
+    <sheet name="Table 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
   <si>
     <t>R1</t>
   </si>
@@ -447,6 +448,84 @@
   </si>
   <si>
     <t>K39</t>
+  </si>
+  <si>
+    <t>SiO2_l</t>
+  </si>
+  <si>
+    <t>MgO_l</t>
+  </si>
+  <si>
+    <t>FeO_l</t>
+  </si>
+  <si>
+    <t>Fe_l</t>
+  </si>
+  <si>
+    <t>FeO_g</t>
+  </si>
+  <si>
+    <t>Fe2O3_l</t>
+  </si>
+  <si>
+    <t>CaO_l</t>
+  </si>
+  <si>
+    <t>CaO_g</t>
+  </si>
+  <si>
+    <t>Al2O3_l</t>
+  </si>
+  <si>
+    <t>Al_l</t>
+  </si>
+  <si>
+    <t>AlO_g</t>
+  </si>
+  <si>
+    <t>AlO2_g</t>
+  </si>
+  <si>
+    <t>Al2O2_g</t>
+  </si>
+  <si>
+    <t>TiO_g</t>
+  </si>
+  <si>
+    <t>Ti_l</t>
+  </si>
+  <si>
+    <t>TiO2_l</t>
+  </si>
+  <si>
+    <t>TiO2_g</t>
+  </si>
+  <si>
+    <t>Na2O_l</t>
+  </si>
+  <si>
+    <t>NaO_g</t>
+  </si>
+  <si>
+    <t>Na2_g</t>
+  </si>
+  <si>
+    <t>Na2O_g</t>
+  </si>
+  <si>
+    <t>Na+</t>
+  </si>
+  <si>
+    <t>K2O_l</t>
+  </si>
+  <si>
+    <t>KO_g</t>
+  </si>
+  <si>
+    <t>K2O_g</t>
+  </si>
+  <si>
+    <t>K+</t>
   </si>
 </sst>
 </file>
@@ -806,13 +885,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA51B45C-F7CC-3B41-AC8C-EF614A95CDBA}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -838,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -864,7 +943,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +969,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -916,7 +995,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -942,7 +1021,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -968,7 +1047,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1073,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1099,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1125,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1151,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1177,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1136,12 +1215,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1191,7 +1270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1494,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1642,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1756,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1813,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1833,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1890,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -1917,14 +1996,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +2041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2002,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2460,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2480,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2503,7 +2582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2605,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2566,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2609,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2629,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2675,7 +2754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2695,7 +2774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2718,7 +2797,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2744,7 +2823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2764,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2777,4 +2856,413 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2">
+        <v>-11.7</v>
+      </c>
+      <c r="D2">
+        <v>38621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3">
+        <v>-12.56</v>
+      </c>
+      <c r="D3">
+        <v>46992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>1.19</v>
+      </c>
+      <c r="D4">
+        <v>-3794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>-12.06</v>
+      </c>
+      <c r="D5">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>-6.35</v>
+      </c>
+      <c r="D6">
+        <v>19704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7">
+        <v>-2.96</v>
+      </c>
+      <c r="D7">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8">
+        <v>-2.26722053113</v>
+      </c>
+      <c r="D8">
+        <f>7.56430936141329*10^4</f>
+        <v>75643.0936141329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>-11.88</v>
+      </c>
+      <c r="D9">
+        <v>49586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>-1.61</v>
+      </c>
+      <c r="D10">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>-33.83</v>
+      </c>
+      <c r="D11">
+        <v>153255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12">
+        <v>-5.7</v>
+      </c>
+      <c r="D12">
+        <v>15862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13">
+        <v>-2.66</v>
+      </c>
+      <c r="D13">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14">
+        <v>-5.79</v>
+      </c>
+      <c r="D14">
+        <v>15867.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>-12.93</v>
+      </c>
+      <c r="D15">
+        <v>54745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D16">
+        <v>-2101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>-6.46</v>
+      </c>
+      <c r="D17">
+        <v>23025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>-21.07</v>
+      </c>
+      <c r="D18">
+        <v>95362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <v>-0.41</v>
+      </c>
+      <c r="D19">
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <v>-15.56</v>
+      </c>
+      <c r="D20">
+        <v>40286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="D21">
+        <v>14569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="D22">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23">
+        <v>-10.47</v>
+      </c>
+      <c r="D23">
+        <v>25180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24">
+        <v>2.8</v>
+      </c>
+      <c r="D24">
+        <v>-27851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25">
+        <v>-15.33</v>
+      </c>
+      <c r="D25">
+        <v>36735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>-4.75</v>
+      </c>
+      <c r="D26">
+        <v>14241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27">
+        <v>-3.94</v>
+      </c>
+      <c r="D27">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28">
+        <v>2.76</v>
+      </c>
+      <c r="D28">
+        <v>-23760</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753D0B6-798B-A442-8795-005E8690C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF56BE69-19FE-8D41-A1DA-E9C0C7DEAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="500" windowWidth="21060" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="23400" yWindow="2680" windowWidth="27460" windowHeight="17980" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>R1</t>
   </si>
@@ -526,6 +526,21 @@
   </si>
   <si>
     <t>K+</t>
+  </si>
+  <si>
+    <t>Si_g</t>
+  </si>
+  <si>
+    <t>SiO2_g</t>
+  </si>
+  <si>
+    <t>Reactants</t>
+  </si>
+  <si>
+    <t>Si_l, O2_g</t>
+  </si>
+  <si>
+    <t>Si_l</t>
   </si>
 </sst>
 </file>
@@ -885,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA51B45C-F7CC-3B41-AC8C-EF614A95CDBA}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2860,15 +2875,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2881,8 +2896,11 @@
       <c r="D1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2896,201 +2914,207 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C3">
-        <v>-12.56</v>
+        <v>-1.44</v>
       </c>
       <c r="D3">
-        <v>46992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C4">
-        <v>1.19</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>-3794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-20919</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5">
-        <v>-12.06</v>
+        <v>-12.56</v>
       </c>
       <c r="D5">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>-6.35</v>
+        <v>1.19</v>
       </c>
       <c r="D6">
-        <v>19704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7">
-        <v>-2.96</v>
+        <v>-12.06</v>
       </c>
       <c r="D7">
-        <v>9753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>-6.35</v>
+      </c>
+      <c r="D8">
+        <v>19704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <v>-2.96</v>
+      </c>
+      <c r="D9">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>142</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>-2.26722053113</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <f>7.56430936141329*10^4</f>
         <v>75643.0936141329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9">
-        <v>-11.88</v>
-      </c>
-      <c r="D9">
-        <v>49586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10">
-        <v>-1.61</v>
-      </c>
-      <c r="D10">
-        <v>6128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11">
-        <v>-33.83</v>
+        <v>-11.88</v>
       </c>
       <c r="D11">
-        <v>153255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12">
-        <v>-5.7</v>
+        <v>-1.61</v>
       </c>
       <c r="D12">
-        <v>15862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13">
-        <v>-2.66</v>
+        <v>-33.83</v>
       </c>
       <c r="D13">
-        <v>13719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14">
-        <v>-5.79</v>
+        <v>-5.7</v>
       </c>
       <c r="D14">
-        <v>15867.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15">
-        <v>-12.93</v>
+        <v>-2.66</v>
       </c>
       <c r="D15">
-        <v>54745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16">
-        <v>4.3099999999999996</v>
+        <v>-5.79</v>
       </c>
       <c r="D16">
-        <v>-2101</v>
+        <v>15867.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,13 +3122,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17">
-        <v>-6.46</v>
+        <v>-12.93</v>
       </c>
       <c r="D17">
-        <v>23025</v>
+        <v>54745</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3112,13 +3136,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18">
-        <v>-21.07</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D18">
-        <v>95362</v>
+        <v>-2101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3126,13 +3150,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19">
-        <v>-0.41</v>
+        <v>-6.46</v>
       </c>
       <c r="D19">
-        <v>17926</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3140,13 +3164,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20">
-        <v>-15.56</v>
+        <v>-21.07</v>
       </c>
       <c r="D20">
-        <v>40286</v>
+        <v>95362</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,13 +3178,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21">
-        <v>-4.9000000000000004</v>
+        <v>-0.41</v>
       </c>
       <c r="D21">
-        <v>14569</v>
+        <v>17926</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,13 +3192,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22">
-        <v>-4.3099999999999996</v>
+        <v>-15.56</v>
       </c>
       <c r="D22">
-        <v>4281</v>
+        <v>40286</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,13 +3206,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23">
-        <v>-10.47</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D23">
-        <v>25180</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,13 +3220,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24">
-        <v>2.8</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="D24">
-        <v>-27851</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25">
-        <v>-15.33</v>
+        <v>-10.47</v>
       </c>
       <c r="D25">
-        <v>36735</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3224,13 +3248,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26">
-        <v>-4.75</v>
+        <v>2.8</v>
       </c>
       <c r="D26">
-        <v>14241</v>
+        <v>-27851</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,13 +3262,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27">
-        <v>-3.94</v>
+        <v>-15.33</v>
       </c>
       <c r="D27">
-        <v>2852</v>
+        <v>36735</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,12 +3276,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28">
+        <v>-4.75</v>
+      </c>
+      <c r="D28">
+        <v>14241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29">
+        <v>-3.94</v>
+      </c>
+      <c r="D29">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>162</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>2.76</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>-23760</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF56BE69-19FE-8D41-A1DA-E9C0C7DEAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BDED2C-2A17-4549-8640-D806A3F76822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23400" yWindow="2680" windowWidth="27460" windowHeight="17980" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="7620" yWindow="520" windowWidth="27220" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="168">
   <si>
     <t>R1</t>
   </si>
@@ -537,10 +537,10 @@
     <t>Reactants</t>
   </si>
   <si>
-    <t>Si_l, O2_g</t>
-  </si>
-  <si>
     <t>Si_l</t>
+  </si>
+  <si>
+    <t>Si_l, O2</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2919,16 +2919,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3">
-        <v>-1.44</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="D3">
-        <v>18326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
+        <v>-8207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,13 +2933,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>-1.44</v>
       </c>
       <c r="D4">
-        <v>-20919</v>
+        <v>18326</v>
       </c>
       <c r="E4" t="s">
         <v>167</v>
@@ -2953,13 +2950,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C5">
-        <v>-12.56</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>46992</v>
+        <v>-20919</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,13 +2967,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C6">
-        <v>1.19</v>
+        <v>-12.56</v>
       </c>
       <c r="D6">
-        <v>-3794</v>
+        <v>46992</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2981,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C7">
-        <v>-12.06</v>
+        <v>1.19</v>
       </c>
       <c r="D7">
-        <v>44992</v>
+        <v>-3794</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2995,13 +2995,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8">
-        <v>-6.35</v>
+        <v>-12.06</v>
       </c>
       <c r="D8">
-        <v>19704</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3009,13 +3009,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9">
-        <v>-2.96</v>
+        <v>-6.35</v>
       </c>
       <c r="D9">
-        <v>9753</v>
+        <v>19704</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3023,14 +3023,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10">
-        <v>-2.26722053113</v>
+        <v>-2.96</v>
       </c>
       <c r="D10">
-        <f>7.56430936141329*10^4</f>
-        <v>75643.0936141329</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,13 +3037,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11">
-        <v>-11.88</v>
+        <v>-2.26722053113</v>
       </c>
       <c r="D11">
-        <v>49586</v>
+        <f>7.56430936141329*10^4</f>
+        <v>75643.0936141329</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,13 +3052,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12">
-        <v>-1.61</v>
+        <v>-11.88</v>
       </c>
       <c r="D12">
-        <v>6128</v>
+        <v>49586</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3066,13 +3066,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13">
-        <v>-33.83</v>
+        <v>-1.61</v>
       </c>
       <c r="D13">
-        <v>153255</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3080,13 +3080,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14">
-        <v>-5.7</v>
+        <v>-33.83</v>
       </c>
       <c r="D14">
-        <v>15862</v>
+        <v>153255</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3094,13 +3094,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>-2.66</v>
+        <v>-5.7</v>
       </c>
       <c r="D15">
-        <v>13719</v>
+        <v>15862</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3108,13 +3108,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16">
-        <v>-5.79</v>
+        <v>-2.66</v>
       </c>
       <c r="D16">
-        <v>15867.5</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3122,13 +3122,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17">
-        <v>-12.93</v>
+        <v>-5.79</v>
       </c>
       <c r="D17">
-        <v>54745</v>
+        <v>15867.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,13 +3136,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18">
-        <v>4.3099999999999996</v>
+        <v>-12.93</v>
       </c>
       <c r="D18">
-        <v>-2101</v>
+        <v>54745</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3150,13 +3150,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19">
-        <v>-6.46</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D19">
-        <v>23025</v>
+        <v>-2101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,13 +3164,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20">
-        <v>-21.07</v>
+        <v>-6.46</v>
       </c>
       <c r="D20">
-        <v>95362</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3178,13 +3178,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21">
-        <v>-0.41</v>
+        <v>-21.07</v>
       </c>
       <c r="D21">
-        <v>17926</v>
+        <v>95362</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,13 +3192,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22">
-        <v>-15.56</v>
+        <v>-0.41</v>
       </c>
       <c r="D22">
-        <v>40286</v>
+        <v>17926</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3206,13 +3206,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23">
-        <v>-4.9000000000000004</v>
+        <v>-15.56</v>
       </c>
       <c r="D23">
-        <v>14569</v>
+        <v>40286</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3220,13 +3220,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24">
-        <v>-4.3099999999999996</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D24">
-        <v>4281</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3234,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
-        <v>-10.47</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="D25">
-        <v>25180</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3248,13 +3248,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26">
-        <v>2.8</v>
+        <v>-10.47</v>
       </c>
       <c r="D26">
-        <v>-27851</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3262,13 +3262,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27">
-        <v>-15.33</v>
+        <v>2.8</v>
       </c>
       <c r="D27">
-        <v>36735</v>
+        <v>-27851</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3276,13 +3276,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28">
-        <v>-4.75</v>
+        <v>-15.33</v>
       </c>
       <c r="D28">
-        <v>14241</v>
+        <v>36735</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3290,13 +3290,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29">
-        <v>-3.94</v>
+        <v>-4.75</v>
       </c>
       <c r="D29">
-        <v>2852</v>
+        <v>14241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,12 +3304,26 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30">
+        <v>-3.94</v>
+      </c>
+      <c r="D30">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>2.76</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>-23760</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BDED2C-2A17-4549-8640-D806A3F76822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E40896-654E-0F43-9AF3-56036AEE45B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="520" windowWidth="27220" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="10880" yWindow="3700" windowWidth="27220" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
   <si>
     <t>R1</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>Si_l, O2</t>
+  </si>
+  <si>
+    <t>Al2O_g</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3122,13 +3125,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C17">
-        <v>-5.79</v>
+        <v>-9.36</v>
       </c>
       <c r="D17">
-        <v>15867.5</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,13 +3139,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18">
-        <v>-12.93</v>
+        <v>-5.79</v>
       </c>
       <c r="D18">
-        <v>54745</v>
+        <v>15867.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3150,13 +3153,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19">
-        <v>4.3099999999999996</v>
+        <v>-12.93</v>
       </c>
       <c r="D19">
-        <v>-2101</v>
+        <v>54745</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,13 +3167,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>-6.46</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D20">
-        <v>23025</v>
+        <v>-2101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3178,13 +3181,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21">
-        <v>-21.07</v>
+        <v>-6.46</v>
       </c>
       <c r="D21">
-        <v>95362</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,13 +3195,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22">
-        <v>-0.41</v>
+        <v>-21.07</v>
       </c>
       <c r="D22">
-        <v>17926</v>
+        <v>95362</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3206,13 +3209,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23">
-        <v>-15.56</v>
+        <v>-0.41</v>
       </c>
       <c r="D23">
-        <v>40286</v>
+        <v>17926</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3220,13 +3223,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24">
-        <v>-4.9000000000000004</v>
+        <v>-15.56</v>
       </c>
       <c r="D24">
-        <v>14569</v>
+        <v>40286</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3234,13 +3237,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25">
-        <v>-4.3099999999999996</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D25">
-        <v>4281</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3248,13 +3251,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26">
-        <v>-10.47</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="D26">
-        <v>25180</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3262,13 +3265,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27">
-        <v>2.8</v>
+        <v>-10.47</v>
       </c>
       <c r="D27">
-        <v>-27851</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3276,13 +3279,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28">
-        <v>-15.33</v>
+        <v>2.8</v>
       </c>
       <c r="D28">
-        <v>36735</v>
+        <v>-27851</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3290,13 +3293,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29">
-        <v>-4.75</v>
+        <v>-15.33</v>
       </c>
       <c r="D29">
-        <v>14241</v>
+        <v>36735</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,13 +3307,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30">
-        <v>-3.94</v>
+        <v>-4.75</v>
       </c>
       <c r="D30">
-        <v>2852</v>
+        <v>14241</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3318,12 +3321,26 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31">
+        <v>-3.94</v>
+      </c>
+      <c r="D31">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>162</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2.76</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>-23760</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E40896-654E-0F43-9AF3-56036AEE45B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBD4201-851E-49C0-A77D-A39E848DF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="3700" windowWidth="27220" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="4935" yWindow="6405" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
   <si>
     <t>R1</t>
   </si>
@@ -544,6 +544,33 @@
   </si>
   <si>
     <t>Al2O_g</t>
+  </si>
+  <si>
+    <t>Ti_l, O2</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>Fe, O</t>
+  </si>
+  <si>
+    <t>Ca, O</t>
+  </si>
+  <si>
+    <t>Al, O</t>
+  </si>
+  <si>
+    <t>Na, O</t>
+  </si>
+  <si>
+    <t>K, O</t>
+  </si>
+  <si>
+    <t>K2_g</t>
+  </si>
+  <si>
+    <t>Mg_g, O</t>
   </si>
 </sst>
 </file>
@@ -907,9 +934,9 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -935,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +988,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1014,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1040,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1066,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1092,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1118,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1144,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1170,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1196,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1222,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1236,9 +1263,9 @@
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1288,7 +1315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1776,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1813,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1833,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1853,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1890,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1930,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1947,7 +1974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1987,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2019,9 +2046,9 @@
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2059,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2259,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2371,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2514,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2537,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2557,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2577,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2623,7 +2650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2643,7 +2670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2663,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2726,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2749,7 +2776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2772,7 +2799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2841,7 +2868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2861,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2878,15 +2905,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2903,85 +2930,88 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>3.47</v>
+      </c>
+      <c r="D2">
+        <v>-13282</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-11.7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>38621</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>166</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-8207</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>164</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-1.44</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>18326</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>163</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-20919</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6">
-        <v>-12.56</v>
-      </c>
-      <c r="D6">
-        <v>46992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -2993,192 +3023,204 @@
         <v>-3794</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>-12.56</v>
+      </c>
+      <c r="D8">
+        <v>46992</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-12.06</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>44992</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-6.35</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>19704</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>141</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-2.96</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>9753</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>142</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-2.26722053113</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f>7.56430936141329*10^4</f>
         <v>75643.0936141329</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-11.88</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>49586</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-1.61</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>6128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-33.83</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>153255</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>146</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>-5.7</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>15862</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>-2.66</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>13719</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>-9.36</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>41956</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>148</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-5.79</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>15867.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-12.93</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>54745</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="D20">
-        <v>-2101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>151</v>
@@ -3190,157 +3232,209 @@
         <v>23025</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D22">
+        <v>-2101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>152</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>-21.07</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>95362</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>153</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-0.41</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>17926</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-15.56</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>40286</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>155</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>14569</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>4281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>157</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>-10.47</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>25180</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>158</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2.8</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>-27851</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>159</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-15.33</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>36735</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>160</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-4.75</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>14241</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="C31">
+      <c r="C32">
+        <v>-14.204000000000001</v>
+      </c>
+      <c r="D32">
+        <v>44009</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33">
         <v>-3.94</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>2852</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>162</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>2.76</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>-23760</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBD4201-851E-49C0-A77D-A39E848DF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9C67BD-4DBF-D042-B72D-E219126AC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="6405" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="18400" yWindow="4520" windowWidth="25580" windowHeight="16900" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -934,9 +934,9 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -962,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -988,7 +988,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1263,9 +1263,9 @@
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2046,9 +2046,9 @@
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2908,12 +2908,12 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>-8207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>-3794</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>19704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>9753</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>75643.0936141329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>15862</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>13719</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>15867.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>54745</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>23025</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>95362</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>-27851</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3404,13 +3404,13 @@
         <v>-14.204000000000001</v>
       </c>
       <c r="D32">
-        <v>44009</v>
+        <v>44099</v>
       </c>
       <c r="E32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9C67BD-4DBF-D042-B72D-E219126AC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A83743-CEE9-1D4B-AC4D-D3E7229F52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18400" yWindow="4520" windowWidth="25580" windowHeight="16900" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
@@ -2908,7 +2908,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,7 +3093,8 @@
         <v>142</v>
       </c>
       <c r="C12">
-        <v>-2.26722053113</v>
+        <f>-2.26722053113 * 10^1</f>
+        <v>-22.672205311300001</v>
       </c>
       <c r="D12">
         <f>7.56430936141329*10^4</f>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A83743-CEE9-1D4B-AC4D-D3E7229F52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC74446D-37A0-BC4C-BFF9-4A801360E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="4520" windowWidth="25580" windowHeight="16900" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="23460" yWindow="5700" windowWidth="25580" windowHeight="16900" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
   <si>
     <t>R1</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Mg_g, O</t>
+  </si>
+  <si>
+    <t>Ti, O</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2911,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3140,7 +3143,7 @@
         <v>145</v>
       </c>
       <c r="C15">
-        <v>-33.83</v>
+        <v>-35.83</v>
       </c>
       <c r="D15">
         <v>153255</v>
@@ -3262,6 +3265,9 @@
       </c>
       <c r="D23">
         <v>95362</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC74446D-37A0-BC4C-BFF9-4A801360E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E87ACBE-9D6A-7E4D-9847-C3B24769FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="5700" windowWidth="25580" windowHeight="16900" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="10440" yWindow="500" windowWidth="21560" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
   <si>
     <t>R1</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Ti, O</t>
+  </si>
+  <si>
+    <t>Fe3O4_l</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3109,16 +3112,15 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C13">
-        <v>-11.88</v>
+        <f>-3.19907301154*10^1</f>
+        <v>-31.990730115399998</v>
       </c>
       <c r="D13">
-        <v>49586</v>
-      </c>
-      <c r="E13" t="s">
-        <v>172</v>
+        <f>1.11052620613963 * 10^5</f>
+        <v>111052.62061396299</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,13 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14">
-        <v>-1.61</v>
+        <v>-11.88</v>
       </c>
       <c r="D14">
-        <v>6128</v>
+        <v>49586</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3140,16 +3145,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15">
-        <v>-35.83</v>
+        <v>-1.61</v>
       </c>
       <c r="D15">
-        <v>153255</v>
-      </c>
-      <c r="E15" t="s">
-        <v>173</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3157,13 +3159,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16">
-        <v>-5.7</v>
+        <v>-35.83</v>
       </c>
       <c r="D16">
-        <v>15862</v>
+        <v>153255</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3171,13 +3176,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17">
-        <v>-2.66</v>
+        <v>-5.7</v>
       </c>
       <c r="D17">
-        <v>13719</v>
+        <v>15862</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3185,13 +3190,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C18">
-        <v>-9.36</v>
+        <v>-2.66</v>
       </c>
       <c r="D18">
-        <v>41956</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3199,13 +3204,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C19">
-        <v>-5.79</v>
+        <v>-9.36</v>
       </c>
       <c r="D19">
-        <v>15867.5</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3213,13 +3218,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20">
-        <v>-12.93</v>
+        <v>-5.79</v>
       </c>
       <c r="D20">
-        <v>54745</v>
+        <v>15867.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3227,13 +3232,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21">
-        <v>-6.46</v>
+        <v>-12.93</v>
       </c>
       <c r="D21">
-        <v>23025</v>
+        <v>54745</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3241,16 +3246,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22">
-        <v>4.3099999999999996</v>
+        <v>-6.46</v>
       </c>
       <c r="D22">
-        <v>-2101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>169</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3258,16 +3260,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23">
-        <v>-21.07</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D23">
-        <v>95362</v>
+        <v>-2101</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,16 +3277,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24">
-        <v>-0.41</v>
+        <v>-21.07</v>
       </c>
       <c r="D24">
-        <v>17926</v>
+        <v>95362</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3292,16 +3294,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25">
-        <v>-15.56</v>
+        <v>-0.41</v>
       </c>
       <c r="D25">
-        <v>40286</v>
+        <v>17926</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3309,13 +3311,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26">
-        <v>-4.9000000000000004</v>
+        <v>-15.56</v>
       </c>
       <c r="D26">
-        <v>14569</v>
+        <v>40286</v>
       </c>
       <c r="E26" t="s">
         <v>174</v>
@@ -3326,13 +3328,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27">
-        <v>-4.3099999999999996</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D27">
-        <v>4281</v>
+        <v>14569</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,16 +3345,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28">
-        <v>-10.47</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="D28">
-        <v>25180</v>
-      </c>
-      <c r="E28" t="s">
-        <v>174</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,13 +3359,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29">
-        <v>2.8</v>
+        <v>-10.47</v>
       </c>
       <c r="D29">
-        <v>-27851</v>
+        <v>25180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,16 +3376,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30">
-        <v>-15.33</v>
+        <v>2.8</v>
       </c>
       <c r="D30">
-        <v>36735</v>
-      </c>
-      <c r="E30" t="s">
-        <v>175</v>
+        <v>-27851</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3388,13 +3390,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31">
-        <v>-4.75</v>
+        <v>-15.33</v>
       </c>
       <c r="D31">
-        <v>14241</v>
+        <v>36735</v>
       </c>
       <c r="E31" t="s">
         <v>175</v>
@@ -3405,43 +3407,60 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32">
-        <v>-14.204000000000001</v>
+        <v>-4.75</v>
       </c>
       <c r="D32">
-        <v>44099</v>
+        <v>14241</v>
       </c>
       <c r="E32" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C33">
-        <v>-3.94</v>
+        <v>-14.204000000000001</v>
       </c>
       <c r="D33">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44099</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34">
+        <v>-3.94</v>
+      </c>
+      <c r="D34">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>162</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>2.76</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>-23760</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E87ACBE-9D6A-7E4D-9847-C3B24769FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA03FC9-25A0-3049-800D-E3310B1D2AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="500" windowWidth="21560" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="13020" yWindow="500" windowWidth="15780" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="186">
   <si>
     <t>R1</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Si_l</t>
   </si>
   <si>
-    <t>Si_l, O2</t>
-  </si>
-  <si>
     <t>Al2O_g</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>R0</t>
   </si>
   <si>
-    <t>Fe, O</t>
-  </si>
-  <si>
     <t>Ca, O</t>
   </si>
   <si>
@@ -570,13 +564,37 @@
     <t>K2_g</t>
   </si>
   <si>
-    <t>Mg_g, O</t>
-  </si>
-  <si>
     <t>Ti, O</t>
   </si>
   <si>
     <t>Fe3O4_l</t>
+  </si>
+  <si>
+    <t>0.5*O2</t>
+  </si>
+  <si>
+    <t>1*SiO, 0.5*O2</t>
+  </si>
+  <si>
+    <t>1*SiO, -0.5*O2</t>
+  </si>
+  <si>
+    <t>1*Si_l, 1*O2</t>
+  </si>
+  <si>
+    <t>1*Si_l</t>
+  </si>
+  <si>
+    <t>1*MgO,-0.5*O2</t>
+  </si>
+  <si>
+    <t>1*Mg_g, 1*O</t>
+  </si>
+  <si>
+    <t>1*Fe, 1*O</t>
+  </si>
+  <si>
+    <t>1*Fe_g</t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2932,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2938,7 +2956,7 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -2950,7 +2968,7 @@
         <v>-13282</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2966,6 +2984,9 @@
       <c r="D3">
         <v>38621</v>
       </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2980,6 +3001,9 @@
       <c r="D4">
         <v>-8207</v>
       </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2995,7 +3019,7 @@
         <v>18326</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,7 +3036,7 @@
         <v>-20919</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3028,6 +3052,9 @@
       <c r="D7">
         <v>-3794</v>
       </c>
+      <c r="E7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3043,7 +3070,7 @@
         <v>46992</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3060,7 +3087,7 @@
         <v>44992</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,6 +3103,9 @@
       <c r="D10">
         <v>19704</v>
       </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3112,7 +3142,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <f>-3.19907301154*10^1</f>
@@ -3137,7 +3167,7 @@
         <v>49586</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3168,7 +3198,7 @@
         <v>153255</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3204,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19">
         <v>-9.36</v>
@@ -3269,7 +3299,7 @@
         <v>-2101</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3286,7 +3316,7 @@
         <v>95362</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3303,7 +3333,7 @@
         <v>17926</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3320,7 +3350,7 @@
         <v>40286</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3367,7 @@
         <v>14569</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3368,7 +3398,7 @@
         <v>25180</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,7 +3429,7 @@
         <v>36735</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3416,7 +3446,7 @@
         <v>14241</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,7 +3463,7 @@
         <v>44099</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3441,7 +3471,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C34">
         <v>-3.94</v>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA03FC9-25A0-3049-800D-E3310B1D2AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3E718-B3BF-7F4E-A305-C6E0B674E86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="500" windowWidth="15780" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
   <si>
     <t>R1</t>
   </si>
@@ -543,30 +543,12 @@
     <t>Al2O_g</t>
   </si>
   <si>
-    <t>Ti_l, O2</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
-    <t>Ca, O</t>
-  </si>
-  <si>
-    <t>Al, O</t>
-  </si>
-  <si>
-    <t>Na, O</t>
-  </si>
-  <si>
-    <t>K, O</t>
-  </si>
-  <si>
     <t>K2_g</t>
   </si>
   <si>
-    <t>Ti, O</t>
-  </si>
-  <si>
     <t>Fe3O4_l</t>
   </si>
   <si>
@@ -595,6 +577,69 @@
   </si>
   <si>
     <t>1*Fe_g</t>
+  </si>
+  <si>
+    <t>1*Fe_g, 0.5*O2</t>
+  </si>
+  <si>
+    <t>2*Fe_g, 1.5*O2</t>
+  </si>
+  <si>
+    <t>3*Fe_g, 2*O2</t>
+  </si>
+  <si>
+    <t>1*Ca, 1*O</t>
+  </si>
+  <si>
+    <t>1*Ca_g, 0.5*O2</t>
+  </si>
+  <si>
+    <t>2*Al, 3*O</t>
+  </si>
+  <si>
+    <t>1*Al</t>
+  </si>
+  <si>
+    <t>1*Al, 0.5*O2</t>
+  </si>
+  <si>
+    <t>2*Al, 0.5*O2</t>
+  </si>
+  <si>
+    <t>1*Al, 1*O2</t>
+  </si>
+  <si>
+    <t>2*Al, 1*O2</t>
+  </si>
+  <si>
+    <t>1*Ti</t>
+  </si>
+  <si>
+    <t>1*Ti_l, 0.5*O2</t>
+  </si>
+  <si>
+    <t>1*Ti_l, 1*O2</t>
+  </si>
+  <si>
+    <t>1*Ti, 2*O</t>
+  </si>
+  <si>
+    <t>2*Na, 1*O</t>
+  </si>
+  <si>
+    <t>1*Na, 1*O</t>
+  </si>
+  <si>
+    <t>2*Na</t>
+  </si>
+  <si>
+    <t>2*K, 1*O</t>
+  </si>
+  <si>
+    <t>1*K, 1*O</t>
+  </si>
+  <si>
+    <t>2*K</t>
   </si>
 </sst>
 </file>
@@ -2931,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2956,7 +3001,7 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -2968,7 +3013,7 @@
         <v>-13282</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2985,7 +3030,7 @@
         <v>38621</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3002,7 +3047,7 @@
         <v>-8207</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3019,7 +3064,7 @@
         <v>18326</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3036,7 +3081,7 @@
         <v>-20919</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3053,7 +3098,7 @@
         <v>-3794</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,7 +3115,7 @@
         <v>46992</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,7 +3132,7 @@
         <v>44992</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3104,7 +3149,7 @@
         <v>19704</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,6 +3165,9 @@
       <c r="D11">
         <v>9753</v>
       </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3136,13 +3184,16 @@
         <f>7.56430936141329*10^4</f>
         <v>75643.0936141329</v>
       </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <f>-3.19907301154*10^1</f>
@@ -3152,6 +3203,9 @@
         <f>1.11052620613963 * 10^5</f>
         <v>111052.62061396299</v>
       </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3167,7 +3221,7 @@
         <v>49586</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3183,6 +3237,9 @@
       <c r="D15">
         <v>6128</v>
       </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3198,7 +3255,7 @@
         <v>153255</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,6 +3271,9 @@
       <c r="D17">
         <v>15862</v>
       </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3228,6 +3288,9 @@
       <c r="D18">
         <v>13719</v>
       </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3242,6 +3305,9 @@
       <c r="D19">
         <v>41956</v>
       </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3256,6 +3322,9 @@
       <c r="D20">
         <v>15867.5</v>
       </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3270,6 +3339,9 @@
       <c r="D21">
         <v>54745</v>
       </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3284,6 +3356,9 @@
       <c r="D22">
         <v>23025</v>
       </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3299,7 +3374,7 @@
         <v>-2101</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,7 +3391,7 @@
         <v>95362</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,7 +3408,7 @@
         <v>17926</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,7 +3425,7 @@
         <v>40286</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3367,7 +3442,7 @@
         <v>14569</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3383,6 +3458,9 @@
       <c r="D28">
         <v>4281</v>
       </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3398,7 +3476,7 @@
         <v>25180</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,7 +3507,7 @@
         <v>36735</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3446,7 +3524,7 @@
         <v>14241</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3463,7 +3541,7 @@
         <v>44099</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3471,13 +3549,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C34">
         <v>-3.94</v>
       </c>
       <c r="D34">
         <v>2852</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3E718-B3BF-7F4E-A305-C6E0B674E86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3705C-30BE-9242-8681-A28999E064CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="500" windowWidth="15780" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="11160" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="203">
   <si>
     <t>R1</t>
   </si>
@@ -576,24 +576,9 @@
     <t>1*Fe, 1*O</t>
   </si>
   <si>
-    <t>1*Fe_g</t>
-  </si>
-  <si>
-    <t>1*Fe_g, 0.5*O2</t>
-  </si>
-  <si>
-    <t>2*Fe_g, 1.5*O2</t>
-  </si>
-  <si>
-    <t>3*Fe_g, 2*O2</t>
-  </si>
-  <si>
     <t>1*Ca, 1*O</t>
   </si>
   <si>
-    <t>1*Ca_g, 0.5*O2</t>
-  </si>
-  <si>
     <t>2*Al, 3*O</t>
   </si>
   <si>
@@ -640,6 +625,27 @@
   </si>
   <si>
     <t>2*K</t>
+  </si>
+  <si>
+    <t>1*Ca, 0.5*O2</t>
+  </si>
+  <si>
+    <t>1*Fe</t>
+  </si>
+  <si>
+    <t>1*Fe, 0.5*O2</t>
+  </si>
+  <si>
+    <t>2*Fe, 1.5*O2</t>
+  </si>
+  <si>
+    <t>3*Fe, 2*O2</t>
+  </si>
+  <si>
+    <t>1*Na</t>
+  </si>
+  <si>
+    <t>1*K</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -3149,7 +3155,7 @@
         <v>19704</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3166,7 +3172,7 @@
         <v>9753</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3185,7 +3191,7 @@
         <v>75643.0936141329</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3204,7 +3210,7 @@
         <v>111052.62061396299</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3221,7 +3227,7 @@
         <v>49586</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3238,7 +3244,7 @@
         <v>6128</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,7 +3261,7 @@
         <v>153255</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,7 +3278,7 @@
         <v>15862</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3289,7 +3295,7 @@
         <v>13719</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,7 +3312,7 @@
         <v>41956</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,7 +3329,7 @@
         <v>15867.5</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,7 +3346,7 @@
         <v>54745</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,7 +3363,7 @@
         <v>23025</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,7 +3380,7 @@
         <v>-2101</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,7 +3397,7 @@
         <v>95362</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,7 +3414,7 @@
         <v>17926</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,7 +3431,7 @@
         <v>40286</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3442,7 +3448,7 @@
         <v>14569</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,7 +3465,7 @@
         <v>4281</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3476,7 +3482,7 @@
         <v>25180</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3492,6 +3498,9 @@
       <c r="D30">
         <v>-27851</v>
       </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3507,7 +3516,7 @@
         <v>36735</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3524,7 +3533,7 @@
         <v>14241</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3541,7 +3550,7 @@
         <v>44099</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,7 +3567,7 @@
         <v>2852</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3573,6 +3582,9 @@
       </c>
       <c r="D35">
         <v>-23760</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3705C-30BE-9242-8681-A28999E064CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DA627-5993-0F43-97A3-E4553B8E05ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="16680" yWindow="1140" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="205">
   <si>
     <t>R1</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>1*K</t>
+  </si>
+  <si>
+    <t>Fe3O4</t>
+  </si>
+  <si>
+    <t>K40</t>
   </si>
 </sst>
 </file>
@@ -2114,11 +2120,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2969,6 +2975,14 @@
       </c>
       <c r="B40" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2982,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DA627-5993-0F43-97A3-E4553B8E05ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE9BDA-ED28-4FEC-84EF-36F1F983BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1140" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="-20685" yWindow="435" windowWidth="27915" windowHeight="19665" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
   <si>
     <t>R1</t>
   </si>
@@ -652,6 +652,36 @@
   </si>
   <si>
     <t>K40</t>
+  </si>
+  <si>
+    <t>ZnO</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Zn2SiO4</t>
+  </si>
+  <si>
+    <t>ZnTiO3</t>
+  </si>
+  <si>
+    <t>Zn2TiO4</t>
+  </si>
+  <si>
+    <t>ZnAl2O4</t>
+  </si>
+  <si>
+    <t>K41</t>
+  </si>
+  <si>
+    <t>K42</t>
+  </si>
+  <si>
+    <t>K43</t>
+  </si>
+  <si>
+    <t>K44</t>
   </si>
 </sst>
 </file>
@@ -1009,15 +1039,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA51B45C-F7CC-3B41-AC8C-EF614A95CDBA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1099,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1151,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1177,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1203,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1229,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1255,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1281,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1307,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1333,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1327,6 +1357,32 @@
       </c>
       <c r="H12">
         <v>-91886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13">
+        <v>14.32</v>
+      </c>
+      <c r="H13">
+        <v>-35990.589999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1339,14 +1395,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB38BCC-BF73-D341-9EF2-69884C8E8DA9}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1396,7 +1452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1736,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1756,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1773,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1921,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1961,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1978,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2075,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2120,16 +2176,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2166,8 +2222,11 @@
       <c r="L1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2327,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2367,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2479,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2499,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2562,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2582,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2602,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2622,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2645,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2685,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2708,7 +2767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2731,7 +2790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2751,7 +2810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2771,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2794,7 +2853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2814,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2857,7 +2916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2880,7 +2939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2900,7 +2959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2923,7 +2982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2949,7 +3008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2969,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2977,12 +3036,62 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2996,13 +3105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3019,7 +3128,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -3036,7 +3145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3162,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3179,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3087,7 +3196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3247,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3155,7 +3264,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3189,7 +3298,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3208,7 +3317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3336,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3370,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3404,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3312,7 +3421,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3329,7 +3438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3346,7 +3455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3472,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3489,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3397,7 +3506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3414,7 +3523,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3431,7 +3540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3448,7 +3557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3465,7 +3574,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3499,7 +3608,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3516,7 +3625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3533,7 +3642,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3550,7 +3659,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3693,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE9BDA-ED28-4FEC-84EF-36F1F983BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DA627-5993-0F43-97A3-E4553B8E05ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20685" yWindow="435" windowWidth="27915" windowHeight="19665" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="16680" yWindow="1140" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="205">
   <si>
     <t>R1</t>
   </si>
@@ -652,36 +652,6 @@
   </si>
   <si>
     <t>K40</t>
-  </si>
-  <si>
-    <t>ZnO</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>Zn2SiO4</t>
-  </si>
-  <si>
-    <t>ZnTiO3</t>
-  </si>
-  <si>
-    <t>Zn2TiO4</t>
-  </si>
-  <si>
-    <t>ZnAl2O4</t>
-  </si>
-  <si>
-    <t>K41</t>
-  </si>
-  <si>
-    <t>K42</t>
-  </si>
-  <si>
-    <t>K43</t>
-  </si>
-  <si>
-    <t>K44</t>
   </si>
 </sst>
 </file>
@@ -1039,15 +1009,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA51B45C-F7CC-3B41-AC8C-EF614A95CDBA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1073,7 +1043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1069,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1095,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1121,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1147,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1173,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1199,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1225,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1251,7 @@
         <v>-36735</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1277,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1303,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1357,32 +1327,6 @@
       </c>
       <c r="H12">
         <v>-91886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13">
-        <v>14.32</v>
-      </c>
-      <c r="H13">
-        <v>-35990.589999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1395,14 +1339,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB38BCC-BF73-D341-9EF2-69884C8E8DA9}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +1396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1755,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1866,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2034,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2054,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2094,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2111,7 +2055,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2131,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2151,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2176,16 +2120,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2222,11 +2166,8 @@
       <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2446,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2469,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2515,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2661,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2681,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2704,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2724,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2744,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2830,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2853,7 +2794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2873,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2893,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2916,7 +2857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2939,7 +2880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2959,7 +2900,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2923,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3008,7 +2949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -3028,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3036,62 +2977,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>207</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3105,13 +2996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3128,7 +3019,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -3145,7 +3036,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3053,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3179,7 +3070,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3196,7 +3087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3104,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3121,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3247,7 +3138,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3264,7 +3155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3172,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3317,7 +3208,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3370,7 +3261,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3387,7 +3278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3404,7 +3295,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3312,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3438,7 +3329,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3346,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3472,7 +3363,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3380,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3397,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3523,7 +3414,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3540,7 +3431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3557,7 +3448,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3465,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3591,7 +3482,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3608,7 +3499,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3625,7 +3516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3642,7 +3533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3659,7 +3550,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3676,7 +3567,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3693,7 +3584,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/PycharmProjects/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DA627-5993-0F43-97A3-E4553B8E05ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF42816-F382-9D45-987B-B51165638C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1140" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="14040" yWindow="760" windowWidth="20520" windowHeight="21580" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="224">
   <si>
     <t>R1</t>
   </si>
@@ -652,6 +652,63 @@
   </si>
   <si>
     <t>K40</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>ZnO</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>ZnO_g</t>
+  </si>
+  <si>
+    <t>1*Zn, 1*O</t>
+  </si>
+  <si>
+    <t>K41</t>
+  </si>
+  <si>
+    <t>K42</t>
+  </si>
+  <si>
+    <t>K43</t>
+  </si>
+  <si>
+    <t>K44</t>
+  </si>
+  <si>
+    <t>Zn2SiO4</t>
+  </si>
+  <si>
+    <t>ZnTiO3</t>
+  </si>
+  <si>
+    <t>Zn2TiO4</t>
+  </si>
+  <si>
+    <t>ZnAl2O4</t>
+  </si>
+  <si>
+    <t>Zn_liq</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>Zn_l</t>
+  </si>
+  <si>
+    <t>1*Zn</t>
+  </si>
+  <si>
+    <t>ZnO_l</t>
+  </si>
+  <si>
+    <t>1*Zn, 0.5*O2</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA51B45C-F7CC-3B41-AC8C-EF614A95CDBA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,6 +1384,32 @@
       </c>
       <c r="H12">
         <v>-91886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13">
+        <v>12.02455</v>
+      </c>
+      <c r="H13">
+        <v>33554.101999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1337,16 +1420,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB38BCC-BF73-D341-9EF2-69884C8E8DA9}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1395,8 +1478,11 @@
       <c r="P1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2075,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2109,6 +2195,40 @@
         <v>0</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40">
+        <v>5.1891999999999996</v>
+      </c>
+      <c r="D40">
+        <v>-6124.14</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41">
+        <v>3.1945999999999999</v>
+      </c>
+      <c r="D41">
+        <v>10967.931</v>
+      </c>
+      <c r="Q41">
         <v>1</v>
       </c>
     </row>
@@ -2120,16 +2240,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B768E-B263-7849-9255-8DC0D8CFF25A}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2166,8 +2286,11 @@
       <c r="L1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2327,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2367,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2857,7 +2980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2880,7 +3003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2900,7 +3023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2923,7 +3046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2949,7 +3072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2969,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2977,12 +3100,92 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D42">
+        <v>1777.9</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="D43">
+        <v>-5625.5439999999999</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44">
+        <v>-0.1464</v>
+      </c>
+      <c r="D44">
+        <v>3044.1203</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45">
+        <v>-1.27715</v>
+      </c>
+      <c r="D45">
+        <v>4727.51</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2994,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3524,10 +3727,10 @@
         <v>159</v>
       </c>
       <c r="C31">
-        <v>-15.33</v>
+        <v>-15.21</v>
       </c>
       <c r="D31">
-        <v>36735</v>
+        <v>36404</v>
       </c>
       <c r="E31" t="s">
         <v>193</v>
@@ -3541,10 +3744,10 @@
         <v>160</v>
       </c>
       <c r="C32">
-        <v>-4.75</v>
+        <v>-4.5888</v>
       </c>
       <c r="D32">
-        <v>14241</v>
+        <v>14548.7</v>
       </c>
       <c r="E32" t="s">
         <v>194</v>
@@ -3558,10 +3761,10 @@
         <v>161</v>
       </c>
       <c r="C33">
-        <v>-14.204000000000001</v>
+        <v>-10.741099999999999</v>
       </c>
       <c r="D33">
-        <v>44099</v>
+        <v>26600.3</v>
       </c>
       <c r="E33" t="s">
         <v>193</v>
@@ -3599,6 +3802,57 @@
       </c>
       <c r="E35" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36">
+        <v>3.1945999999999999</v>
+      </c>
+      <c r="D36">
+        <v>-10967.931</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37">
+        <v>-12.02455</v>
+      </c>
+      <c r="D37">
+        <v>33554.101999999999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38">
+        <v>-5.1891999999999996</v>
+      </c>
+      <c r="D38">
+        <v>6124.14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF42816-F382-9D45-987B-B51165638C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736AD95-1455-4385-A802-648F009EB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="760" windowWidth="20520" windowHeight="21580" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
+    <workbookView xWindow="3135" yWindow="135" windowWidth="10305" windowHeight="20985" firstSheet="1" activeTab="3" xr2:uid="{456E65B5-CD77-6C45-B868-846F4563A2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -1069,12 +1069,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>-94311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1302,13 +1302,13 @@
         <v>81</v>
       </c>
       <c r="G9">
-        <v>15.33</v>
+        <v>-15.21</v>
       </c>
       <c r="H9">
-        <v>-36735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>-112807</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>-100627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>-91886</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1424,12 +1424,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -2247,9 +2247,9 @@
       <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -3199,13 +3199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1716CC3-50ED-4F4B-B9E3-816FAA8C5A11}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979FADC5-C511-4237-AB0B-F0B0D84EE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B5C2E-F479-4B43-868E-43D32A73F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="870" windowWidth="17565" windowHeight="18585" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="20865" yWindow="855" windowWidth="17070" windowHeight="18585" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="244">
   <si>
     <t>Label</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>1*Zn</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -826,10 +829,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,15 +1128,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476373E-24FC-B041-9BEB-C58A30D18A9B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1161,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1183,13 +1185,16 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>22.13</v>
+        <v>23.278899717000002</v>
       </c>
       <c r="H2">
-        <v>-94311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-99057.305063000007</v>
+      </c>
+      <c r="I2">
+        <v>2655395.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1272,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>36404</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1391,13 +1396,13 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>9.5500000000000007</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="H10">
-        <v>-63948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1417,13 +1422,13 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>19.18</v>
+        <v>-26.91</v>
       </c>
       <c r="H11">
-        <v>-100627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1443,13 +1448,13 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>18.670000000000002</v>
+        <v>-29.86</v>
       </c>
       <c r="H12">
-        <v>-91886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>12.02455</v>
       </c>
       <c r="H13">
-        <v>33554.101999999999</v>
+        <v>-33554.101999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEBFD2C-B727-284E-A9E8-3A590E1F1B98}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2437,8 +2442,8 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2492,10 +2497,10 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>-0.94</v>
+        <v>-0.94840000000000002</v>
       </c>
       <c r="D2">
-        <v>7434</v>
+        <v>7404.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2512,10 +2517,10 @@
         <v>116</v>
       </c>
       <c r="C3">
-        <v>0.42</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="D3">
-        <v>2329</v>
+        <v>2330.6170000000002</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3450,15 +3455,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3472,10 +3477,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3488,11 +3496,11 @@
       <c r="D2">
         <v>-13282</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3500,16 +3508,20 @@
         <v>174</v>
       </c>
       <c r="C3">
-        <v>-11.7</v>
+        <v>-18.8489</v>
       </c>
       <c r="D3">
-        <v>38621</v>
-      </c>
-      <c r="E3" t="s">
+        <v>64286.3</v>
+      </c>
+      <c r="E3">
+        <f>-2655400</f>
+        <v>-2655400</v>
+      </c>
+      <c r="F3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3522,11 +3534,11 @@
       <c r="D4">
         <v>-8207</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3539,11 +3551,11 @@
       <c r="D5">
         <v>19892.900000000001</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3556,11 +3568,11 @@
       <c r="D6">
         <v>-20919</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3573,11 +3585,11 @@
       <c r="D7">
         <v>-3794</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3590,11 +3602,11 @@
       <c r="D8">
         <v>46992</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3607,11 +3619,11 @@
       <c r="D9">
         <v>44992</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3624,11 +3636,11 @@
       <c r="D10">
         <v>19704</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3641,11 +3653,11 @@
       <c r="D11">
         <v>9753</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3660,11 +3672,11 @@
         <f>75643.0936141329</f>
         <v>75643.0936141329</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3679,11 +3691,11 @@
         <f>111052.620613963</f>
         <v>111052.62061396299</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3696,11 +3708,11 @@
       <c r="D14">
         <v>49586</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3713,11 +3725,11 @@
       <c r="D15">
         <v>6128</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3730,11 +3742,11 @@
       <c r="D16">
         <v>153255</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3747,11 +3759,11 @@
       <c r="D17">
         <v>15862</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3764,11 +3776,11 @@
       <c r="D18">
         <v>13719</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3781,11 +3793,11 @@
       <c r="D19">
         <v>41956</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3798,11 +3810,11 @@
       <c r="D20">
         <v>15867.5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3815,11 +3827,11 @@
       <c r="D21">
         <v>54745</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3832,11 +3844,11 @@
       <c r="D22">
         <v>23025</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3849,11 +3861,11 @@
       <c r="D23">
         <v>-2101</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3866,11 +3878,11 @@
       <c r="D24">
         <v>95362</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3883,11 +3895,11 @@
       <c r="D25">
         <v>17926</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3900,11 +3912,11 @@
       <c r="D26">
         <v>40286</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3917,11 +3929,11 @@
       <c r="D27">
         <v>13305.8712</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3934,11 +3946,11 @@
       <c r="D28">
         <v>4281</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3951,11 +3963,11 @@
       <c r="D29">
         <v>25351.16747</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3968,11 +3980,11 @@
       <c r="D30">
         <v>-27851</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3985,11 +3997,11 @@
       <c r="D31">
         <v>36404</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -4002,11 +4014,11 @@
       <c r="D32">
         <v>14548.7</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4019,11 +4031,11 @@
       <c r="D33">
         <v>26600.3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4036,11 +4048,11 @@
       <c r="D34">
         <v>2852</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -4053,11 +4065,11 @@
       <c r="D35">
         <v>-23760</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4070,11 +4082,11 @@
       <c r="D36">
         <v>-10967.931</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4087,11 +4099,11 @@
       <c r="D37">
         <v>33554.101999999999</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4104,7 +4116,7 @@
       <c r="D38">
         <v>6124.14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>242</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979FADC5-C511-4237-AB0B-F0B0D84EE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A3A0C-D5F6-8E4D-AE96-1402079B98E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="870" windowWidth="17565" windowHeight="18585" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="1540" yWindow="1100" windowWidth="31420" windowHeight="21240" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="244">
   <si>
     <t>Label</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>1*Zn</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -826,10 +829,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,15 +1128,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476373E-24FC-B041-9BEB-C58A30D18A9B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1161,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1183,13 +1185,16 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>22.13</v>
+        <v>23.278899717000002</v>
       </c>
       <c r="H2">
-        <v>-94311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-99057.305063000007</v>
+      </c>
+      <c r="I2">
+        <v>2655395.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1272,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>36404</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1391,13 +1396,13 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>9.5500000000000007</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="H10">
-        <v>-63948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1417,13 +1422,13 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>19.18</v>
+        <v>-26.91</v>
       </c>
       <c r="H11">
-        <v>-100627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1443,13 +1448,13 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>18.670000000000002</v>
+        <v>-29.86</v>
       </c>
       <c r="H12">
-        <v>-91886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>12.02455</v>
       </c>
       <c r="H13">
-        <v>33554.101999999999</v>
+        <v>-33554.101999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1484,13 +1489,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEBFD2C-B727-284E-A9E8-3A590E1F1B98}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1838,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2059,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2165,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2211,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -2231,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2437,13 +2442,13 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2492,10 +2497,10 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>-0.94</v>
+        <v>-0.94840000000000002</v>
       </c>
       <c r="D2">
-        <v>7434</v>
+        <v>7404.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2504,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2512,10 +2517,10 @@
         <v>116</v>
       </c>
       <c r="C3">
-        <v>0.42</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="D3">
-        <v>2329</v>
+        <v>2330.6170000000002</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2524,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2859,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2879,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3211,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -3450,15 +3455,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3472,10 +3477,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3488,11 +3496,11 @@
       <c r="D2">
         <v>-13282</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3500,16 +3508,20 @@
         <v>174</v>
       </c>
       <c r="C3">
-        <v>-11.7</v>
+        <v>-12.8489</v>
       </c>
       <c r="D3">
-        <v>38621</v>
-      </c>
-      <c r="E3" t="s">
+        <v>43367.3</v>
+      </c>
+      <c r="E3">
+        <f>-2655400</f>
+        <v>-2655400</v>
+      </c>
+      <c r="F3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3522,11 +3534,11 @@
       <c r="D4">
         <v>-8207</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3539,11 +3551,11 @@
       <c r="D5">
         <v>19892.900000000001</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3556,11 +3568,11 @@
       <c r="D6">
         <v>-20919</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3573,11 +3585,11 @@
       <c r="D7">
         <v>-3794</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3590,11 +3602,11 @@
       <c r="D8">
         <v>46992</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3607,11 +3619,11 @@
       <c r="D9">
         <v>44992</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3624,11 +3636,11 @@
       <c r="D10">
         <v>19704</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3641,11 +3653,11 @@
       <c r="D11">
         <v>9753</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3660,11 +3672,11 @@
         <f>75643.0936141329</f>
         <v>75643.0936141329</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3679,11 +3691,11 @@
         <f>111052.620613963</f>
         <v>111052.62061396299</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3696,11 +3708,11 @@
       <c r="D14">
         <v>49586</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3713,11 +3725,11 @@
       <c r="D15">
         <v>6128</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3730,11 +3742,11 @@
       <c r="D16">
         <v>153255</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3747,11 +3759,11 @@
       <c r="D17">
         <v>15862</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3764,11 +3776,11 @@
       <c r="D18">
         <v>13719</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3781,11 +3793,11 @@
       <c r="D19">
         <v>41956</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3798,11 +3810,11 @@
       <c r="D20">
         <v>15867.5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3815,11 +3827,11 @@
       <c r="D21">
         <v>54745</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3832,11 +3844,11 @@
       <c r="D22">
         <v>23025</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3849,11 +3861,11 @@
       <c r="D23">
         <v>-2101</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3866,11 +3878,11 @@
       <c r="D24">
         <v>95362</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3883,11 +3895,11 @@
       <c r="D25">
         <v>17926</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3900,11 +3912,11 @@
       <c r="D26">
         <v>40286</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3917,11 +3929,11 @@
       <c r="D27">
         <v>13305.8712</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3934,11 +3946,11 @@
       <c r="D28">
         <v>4281</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3951,11 +3963,11 @@
       <c r="D29">
         <v>25351.16747</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3968,11 +3980,11 @@
       <c r="D30">
         <v>-27851</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3985,11 +3997,11 @@
       <c r="D31">
         <v>36404</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -4002,11 +4014,11 @@
       <c r="D32">
         <v>14548.7</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4019,11 +4031,11 @@
       <c r="D33">
         <v>26600.3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4036,11 +4048,11 @@
       <c r="D34">
         <v>2852</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -4053,11 +4065,11 @@
       <c r="D35">
         <v>-23760</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4070,11 +4082,11 @@
       <c r="D36">
         <v>-10967.931</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4087,11 +4099,11 @@
       <c r="D37">
         <v>33554.101999999999</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4104,7 +4116,7 @@
       <c r="D38">
         <v>6124.14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>242</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A3A0C-D5F6-8E4D-AE96-1402079B98E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B64F3-73E4-A744-980A-E6BCFB87624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1100" windowWidth="31420" windowHeight="21240" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="400" yWindow="760" windowWidth="31300" windowHeight="21240" activeTab="1" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="242">
   <si>
     <t>Label</t>
   </si>
@@ -494,9 +494,6 @@
     <t>KAlSi2O6</t>
   </si>
   <si>
-    <t>KCaAlSi2O7</t>
-  </si>
-  <si>
     <t>K2Si4O9</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
   </si>
   <si>
     <t>Na6Si2O7</t>
-  </si>
-  <si>
-    <t>R47</t>
   </si>
   <si>
     <t>Reactants</t>
@@ -1162,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1489,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEBFD2C-B727-284E-A9E8-3A590E1F1B98}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,19 +1536,19 @@
         <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>56</v>
       </c>
       <c r="R1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S1" t="s">
         <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U1" t="s">
         <v>58</v>
@@ -2426,6 +2420,9 @@
       </c>
       <c r="E41">
         <v>-10967.931</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -2439,11 +2436,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E87784-E8EA-0C48-B8E0-41A25BCC011E}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2869,7 +2866,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <v>-3</v>
@@ -3141,7 +3138,7 @@
         <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <v>-4.157</v>
@@ -3161,7 +3158,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34">
         <v>-2.0449999999999999</v>
@@ -3313,137 +3310,111 @@
         <v>151</v>
       </c>
       <c r="C41">
-        <v>4.2983000000000002</v>
+        <v>-1.33</v>
       </c>
       <c r="D41">
-        <v>17037</v>
+        <v>17995</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42">
-        <v>-1.33</v>
-      </c>
-      <c r="D42">
-        <v>17995</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
         <v>153</v>
       </c>
+      <c r="C44">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D44">
+        <v>1777.9</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
         <v>154</v>
       </c>
       <c r="C45">
-        <v>0.59599999999999997</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="D45">
-        <v>1777.9</v>
-      </c>
-      <c r="E45">
+        <v>-5625.5439999999999</v>
+      </c>
+      <c r="J45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
         <v>155</v>
       </c>
       <c r="C46">
-        <v>2.7930000000000001</v>
+        <v>-0.1464</v>
       </c>
       <c r="D46">
-        <v>-5625.5439999999999</v>
+        <v>3044.1203</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>156</v>
       </c>
       <c r="C47">
-        <v>-0.1464</v>
+        <v>-1.27715</v>
       </c>
       <c r="D47">
-        <v>3044.1203</v>
-      </c>
-      <c r="J47">
+        <v>4727.51</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48">
-        <v>-1.27715</v>
-      </c>
-      <c r="D48">
-        <v>4727.51</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="M48">
         <v>1</v>
       </c>
     </row>
@@ -3457,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A8" zoomScale="185" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3477,15 +3448,15 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3497,7 +3468,7 @@
         <v>-13282</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3505,7 +3476,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>-12.8489</v>
@@ -3518,7 +3489,7 @@
         <v>-2655400</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3526,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4">
         <v>-2.5099999999999998</v>
@@ -3535,7 +3506,7 @@
         <v>-8207</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>-1.7170000000000001</v>
@@ -3552,7 +3523,7 @@
         <v>19892.900000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3560,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -3569,7 +3540,7 @@
         <v>-20919</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3586,7 +3557,7 @@
         <v>-3794</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3594,7 +3565,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>-12.56</v>
@@ -3603,7 +3574,7 @@
         <v>46992</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3611,7 +3582,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>-12.06</v>
@@ -3620,7 +3591,7 @@
         <v>44992</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3628,7 +3599,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>-6.35</v>
@@ -3637,7 +3608,7 @@
         <v>19704</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3645,7 +3616,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>-2.96</v>
@@ -3654,7 +3625,7 @@
         <v>9753</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3662,7 +3633,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12">
         <f>-22.6722053113</f>
@@ -3673,7 +3644,7 @@
         <v>75643.0936141329</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,7 +3652,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <f>-31.9907301154</f>
@@ -3692,7 +3663,7 @@
         <v>111052.62061396299</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,7 +3671,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>-11.88</v>
@@ -3709,7 +3680,7 @@
         <v>49586</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3717,7 +3688,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>-1.61</v>
@@ -3726,7 +3697,7 @@
         <v>6128</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3734,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16">
         <v>-35.83</v>
@@ -3743,7 +3714,7 @@
         <v>153255</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3751,7 +3722,7 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C17">
         <v>-5.7</v>
@@ -3760,7 +3731,7 @@
         <v>15862</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,7 +3739,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18">
         <v>-2.66</v>
@@ -3777,7 +3748,7 @@
         <v>13719</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3785,7 +3756,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>-9.36</v>
@@ -3794,7 +3765,7 @@
         <v>41956</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3802,7 +3773,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>-5.79</v>
@@ -3811,7 +3782,7 @@
         <v>15867.5</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,7 +3790,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>-12.93</v>
@@ -3828,7 +3799,7 @@
         <v>54745</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3836,7 +3807,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22">
         <v>-6.46</v>
@@ -3845,7 +3816,7 @@
         <v>23025</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3853,7 +3824,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <v>4.3099999999999996</v>
@@ -3862,7 +3833,7 @@
         <v>-2101</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3870,7 +3841,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24">
         <v>-21.07</v>
@@ -3879,7 +3850,7 @@
         <v>95362</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3887,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C25">
         <v>-0.41</v>
@@ -3896,7 +3867,7 @@
         <v>17926</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3904,7 +3875,7 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <v>-15.56</v>
@@ -3913,7 +3884,7 @@
         <v>40286</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,7 +3892,7 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27">
         <v>-4.8391500000000001</v>
@@ -3930,7 +3901,7 @@
         <v>13305.8712</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3938,7 +3909,7 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28">
         <v>-4.3099999999999996</v>
@@ -3947,7 +3918,7 @@
         <v>4281</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3955,7 +3926,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>-10.539709999999999</v>
@@ -3964,7 +3935,7 @@
         <v>25351.16747</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,7 +3943,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>2.8</v>
@@ -3981,7 +3952,7 @@
         <v>-27851</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3989,7 +3960,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C31">
         <v>-15.21</v>
@@ -3998,7 +3969,7 @@
         <v>36404</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4006,7 +3977,7 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32">
         <v>-4.5888</v>
@@ -4015,7 +3986,7 @@
         <v>14548.7</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4023,7 +3994,7 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>-10.741099999999999</v>
@@ -4032,7 +4003,7 @@
         <v>26600.3</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4040,7 +4011,7 @@
         <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34">
         <v>-3.94</v>
@@ -4049,7 +4020,7 @@
         <v>2852</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4057,7 +4028,7 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35">
         <v>2.76</v>
@@ -4066,7 +4037,7 @@
         <v>-23760</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,7 +4045,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36">
         <v>3.1945999999999999</v>
@@ -4083,7 +4054,7 @@
         <v>-10967.931</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4091,7 +4062,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37">
         <v>-12.02455</v>
@@ -4100,7 +4071,7 @@
         <v>33554.101999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,7 +4079,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C38">
         <v>-5.1891999999999996</v>
@@ -4117,7 +4088,7 @@
         <v>6124.14</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/PhD Research/MAGMApy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B64F3-73E4-A744-980A-E6BCFB87624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200DFB1-E7F2-443F-A7BE-856620C17C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="31300" windowHeight="21240" activeTab="1" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="-21570" yWindow="4395" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -749,9 +749,6 @@
     <t>ZnO_g</t>
   </si>
   <si>
-    <t>1*Zn, 0.5*O2</t>
-  </si>
-  <si>
     <t>ZnO_l</t>
   </si>
   <si>
@@ -765,6 +762,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>1*Zn_l, 0.5*O2</t>
   </si>
 </sst>
 </file>
@@ -1128,9 +1128,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>2655395.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>36404</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>63948</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>204359</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>200903</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1483,13 +1483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEBFD2C-B727-284E-A9E8-3A590E1F1B98}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2439,13 +2439,13 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -3428,13 +3428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3448,13 +3448,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4054,15 +4054,15 @@
         <v>-10967.931</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37">
         <v>-12.02455</v>
@@ -4071,15 +4071,15 @@
         <v>33554.101999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38">
         <v>-5.1891999999999996</v>
@@ -4088,7 +4088,7 @@
         <v>6124.14</v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200DFB1-E7F2-443F-A7BE-856620C17C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D6DF5-BDDE-47AC-937C-3F7E852C6022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21570" yWindow="4395" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="241">
   <si>
     <t>Label</t>
   </si>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>1*Zn</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>1*Zn_l, 0.5*O2</t>
@@ -1122,15 +1119,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476373E-24FC-B041-9BEB-C58A30D18A9B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,11 +1152,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1179,16 +1173,13 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>23.278899717000002</v>
+        <v>22.13</v>
       </c>
       <c r="H2">
-        <v>-99057.305063000007</v>
-      </c>
-      <c r="I2">
-        <v>2655395.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-94311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1205,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1231,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1257,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1283,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1335,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1361,7 @@
         <v>36404</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1390,13 +1381,13 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>-9.5500000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="H10">
-        <v>63948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-63948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1416,13 +1407,13 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>-26.91</v>
+        <v>19.18</v>
       </c>
       <c r="H11">
-        <v>204359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-100627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1442,13 +1433,13 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>-29.86</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="H12">
-        <v>200903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-91886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>12.02455</v>
       </c>
       <c r="H13">
-        <v>-33554.101999999999</v>
+        <v>33554.101999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1475,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2420,9 +2411,6 @@
       </c>
       <c r="E41">
         <v>-10967.931</v>
-      </c>
-      <c r="F41">
-        <v>0.5</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -2439,8 +2427,8 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2494,10 +2482,10 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>-0.94840000000000002</v>
+        <v>-0.94</v>
       </c>
       <c r="D2">
-        <v>7404.5</v>
+        <v>7434</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2514,10 +2502,10 @@
         <v>116</v>
       </c>
       <c r="C3">
-        <v>0.41520000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="D3">
-        <v>2330.6170000000002</v>
+        <v>2329</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3426,15 +3414,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3448,13 +3436,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -3467,11 +3452,11 @@
       <c r="D2">
         <v>-13282</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3479,20 +3464,16 @@
         <v>172</v>
       </c>
       <c r="C3">
-        <v>-12.8489</v>
+        <v>-11.7</v>
       </c>
       <c r="D3">
-        <v>43367.3</v>
-      </c>
-      <c r="E3">
-        <f>-2655400</f>
-        <v>-2655400</v>
-      </c>
-      <c r="F3" t="s">
+        <v>38621</v>
+      </c>
+      <c r="E3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3505,11 +3486,11 @@
       <c r="D4">
         <v>-8207</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3522,11 +3503,11 @@
       <c r="D5">
         <v>19892.900000000001</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3539,11 +3520,11 @@
       <c r="D6">
         <v>-20919</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3556,11 +3537,11 @@
       <c r="D7">
         <v>-3794</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3573,11 +3554,11 @@
       <c r="D8">
         <v>46992</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3590,11 +3571,11 @@
       <c r="D9">
         <v>44992</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3607,11 +3588,11 @@
       <c r="D10">
         <v>19704</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3624,11 +3605,11 @@
       <c r="D11">
         <v>9753</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3643,11 +3624,11 @@
         <f>75643.0936141329</f>
         <v>75643.0936141329</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3662,11 +3643,11 @@
         <f>111052.620613963</f>
         <v>111052.62061396299</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3679,11 +3660,11 @@
       <c r="D14">
         <v>49586</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3696,11 +3677,11 @@
       <c r="D15">
         <v>6128</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3713,11 +3694,11 @@
       <c r="D16">
         <v>153255</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3730,11 +3711,11 @@
       <c r="D17">
         <v>15862</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3747,11 +3728,11 @@
       <c r="D18">
         <v>13719</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3764,11 +3745,11 @@
       <c r="D19">
         <v>41956</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3781,11 +3762,11 @@
       <c r="D20">
         <v>15867.5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3798,11 +3779,11 @@
       <c r="D21">
         <v>54745</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3815,11 +3796,11 @@
       <c r="D22">
         <v>23025</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3832,11 +3813,11 @@
       <c r="D23">
         <v>-2101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3849,11 +3830,11 @@
       <c r="D24">
         <v>95362</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3866,11 +3847,11 @@
       <c r="D25">
         <v>17926</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3883,11 +3864,11 @@
       <c r="D26">
         <v>40286</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3900,11 +3881,11 @@
       <c r="D27">
         <v>13305.8712</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3917,11 +3898,11 @@
       <c r="D28">
         <v>4281</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3934,11 +3915,11 @@
       <c r="D29">
         <v>25351.16747</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3951,11 +3932,11 @@
       <c r="D30">
         <v>-27851</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3968,11 +3949,11 @@
       <c r="D31">
         <v>36404</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3985,11 +3966,11 @@
       <c r="D32">
         <v>14548.7</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -4002,11 +3983,11 @@
       <c r="D33">
         <v>26600.3</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4019,11 +4000,11 @@
       <c r="D34">
         <v>2852</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -4036,11 +4017,11 @@
       <c r="D35">
         <v>-23760</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4053,11 +4034,11 @@
       <c r="D36">
         <v>-10967.931</v>
       </c>
-      <c r="F36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4070,11 +4051,11 @@
       <c r="D37">
         <v>33554.101999999999</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4087,7 +4068,7 @@
       <c r="D38">
         <v>6124.14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>239</v>
       </c>
     </row>

--- a/data/MAGMA_Thermodynamic_Data.xlsx
+++ b/data/MAGMA_Thermodynamic_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D6DF5-BDDE-47AC-937C-3F7E852C6022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200DFB1-E7F2-443F-A7BE-856620C17C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="-21570" yWindow="4395" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="242">
   <si>
     <t>Label</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>1*Zn</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>1*Zn_l, 0.5*O2</t>
@@ -1119,15 +1122,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5476373E-24FC-B041-9BEB-C58A30D18A9B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1155,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1173,13 +1179,16 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>22.13</v>
+        <v>23.278899717000002</v>
       </c>
       <c r="H2">
-        <v>-94311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-99057.305063000007</v>
+      </c>
+      <c r="I2">
+        <v>2655395.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>-46992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>-44992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>-49586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>-153255</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>-95362</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>-40286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>36404</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1381,13 +1390,13 @@
         <v>35</v>
       </c>
       <c r="G10">
-        <v>9.5500000000000007</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="H10">
-        <v>-63948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1407,13 +1416,13 @@
         <v>38</v>
       </c>
       <c r="G11">
-        <v>19.18</v>
+        <v>-26.91</v>
       </c>
       <c r="H11">
-        <v>-100627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1433,13 +1442,13 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>18.670000000000002</v>
+        <v>-29.86</v>
       </c>
       <c r="H12">
-        <v>-91886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>12.02455</v>
       </c>
       <c r="H13">
-        <v>33554.101999999999</v>
+        <v>-33554.101999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1484,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2411,6 +2420,9 @@
       </c>
       <c r="E41">
         <v>-10967.931</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -2427,8 +2439,8 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2482,10 +2494,10 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>-0.94</v>
+        <v>-0.94840000000000002</v>
       </c>
       <c r="D2">
-        <v>7434</v>
+        <v>7404.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2502,10 +2514,10 @@
         <v>116</v>
       </c>
       <c r="C3">
-        <v>0.42</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="D3">
-        <v>2329</v>
+        <v>2330.6170000000002</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3414,15 +3426,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E18122-6D19-724B-BF5D-00F815E4C0D4}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3436,10 +3448,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -3452,11 +3467,11 @@
       <c r="D2">
         <v>-13282</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3464,16 +3479,20 @@
         <v>172</v>
       </c>
       <c r="C3">
-        <v>-11.7</v>
+        <v>-12.8489</v>
       </c>
       <c r="D3">
-        <v>38621</v>
-      </c>
-      <c r="E3" t="s">
+        <v>43367.3</v>
+      </c>
+      <c r="E3">
+        <f>-2655400</f>
+        <v>-2655400</v>
+      </c>
+      <c r="F3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3486,11 +3505,11 @@
       <c r="D4">
         <v>-8207</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3503,11 +3522,11 @@
       <c r="D5">
         <v>19892.900000000001</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3520,11 +3539,11 @@
       <c r="D6">
         <v>-20919</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3537,11 +3556,11 @@
       <c r="D7">
         <v>-3794</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3554,11 +3573,11 @@
       <c r="D8">
         <v>46992</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3571,11 +3590,11 @@
       <c r="D9">
         <v>44992</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3588,11 +3607,11 @@
       <c r="D10">
         <v>19704</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3605,11 +3624,11 @@
       <c r="D11">
         <v>9753</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3624,11 +3643,11 @@
         <f>75643.0936141329</f>
         <v>75643.0936141329</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3643,11 +3662,11 @@
         <f>111052.620613963</f>
         <v>111052.62061396299</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3660,11 +3679,11 @@
       <c r="D14">
         <v>49586</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3677,11 +3696,11 @@
       <c r="D15">
         <v>6128</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3694,11 +3713,11 @@
       <c r="D16">
         <v>153255</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3711,11 +3730,11 @@
       <c r="D17">
         <v>15862</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3728,11 +3747,11 @@
       <c r="D18">
         <v>13719</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3745,11 +3764,11 @@
       <c r="D19">
         <v>41956</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3762,11 +3781,11 @@
       <c r="D20">
         <v>15867.5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3779,11 +3798,11 @@
       <c r="D21">
         <v>54745</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3796,11 +3815,11 @@
       <c r="D22">
         <v>23025</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3813,11 +3832,11 @@
       <c r="D23">
         <v>-2101</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3830,11 +3849,11 @@
       <c r="D24">
         <v>95362</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3847,11 +3866,11 @@
       <c r="D25">
         <v>17926</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3864,11 +3883,11 @@
       <c r="D26">
         <v>40286</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3881,11 +3900,11 @@
       <c r="D27">
         <v>13305.8712</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3898,11 +3917,11 @@
       <c r="D28">
         <v>4281</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3915,11 +3934,11 @@
       <c r="D29">
         <v>25351.16747</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3932,11 +3951,11 @@
       <c r="D30">
         <v>-27851</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3949,11 +3968,11 @@
       <c r="D31">
         <v>36404</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3966,11 +3985,11 @@
       <c r="D32">
         <v>14548.7</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -3983,11 +4002,11 @@
       <c r="D33">
         <v>26600.3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -4000,11 +4019,11 @@
       <c r="D34">
         <v>2852</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -4017,11 +4036,11 @@
       <c r="D35">
         <v>-23760</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -4034,11 +4053,11 @@
       <c r="D36">
         <v>-10967.931</v>
       </c>
-      <c r="E36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -4051,11 +4070,11 @@
       <c r="D37">
         <v>33554.101999999999</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4068,7 +4087,7 @@
       <c r="D38">
         <v>6124.14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>239</v>
       </c>
     </row>
